--- a/event_stream.xlsx
+++ b/event_stream.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\面向对象分析与程序设计\课设\pyqt\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271C2F6A-62C9-477A-81A4-3039BB6C20F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E3513D-7D85-4704-8EA4-B92D4197F32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-119" yWindow="-119" windowWidth="25603" windowHeight="14506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>爱德华兹 三分投篮： 不中</t>
   </si>
   <si>
-    <t>L. 勒布朗-詹姆斯 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
-  </si>
-  <si>
     <t>八村塁 三分投篮： 命中(3 分) (戴维斯 1 次助攻)</t>
   </si>
   <si>
@@ -102,21 +99,12 @@
     <t>爱德华兹 三分投篮： 命中(3 分) (朱利叶斯-兰德尔 2 次助攻)</t>
   </si>
   <si>
-    <t>L. 勒布朗-詹姆斯 突破打板勾手投篮： 不中</t>
-  </si>
-  <si>
     <t>戈贝尔 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
   </si>
   <si>
     <t>杰登-麦克丹尼尔斯 行进间上篮： 不中</t>
   </si>
   <si>
-    <t>L. 勒布朗-詹姆斯 封盖 (1 次封盖)</t>
-  </si>
-  <si>
-    <t>L. 勒布朗-詹姆斯 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
-  </si>
-  <si>
     <t>八村塁 三分投篮： 不中</t>
   </si>
   <si>
@@ -138,9 +126,6 @@
     <t>戴维斯 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
   </si>
   <si>
-    <t>L. 勒布朗-詹姆斯 行进间上篮： 命中(2 分) (戴维斯 2 次助攻)</t>
-  </si>
-  <si>
     <t>里维斯 违例：脚踢球 (裁判：N.布赫特吹罚)</t>
   </si>
   <si>
@@ -150,9 +135,6 @@
     <t>戴维斯 抢断 (1 次抢断)</t>
   </si>
   <si>
-    <t>L. 勒布朗-詹姆斯 行进间灌篮： 命中(4 分) (里维斯 1 次助攻)</t>
-  </si>
-  <si>
     <t>戈贝尔 失误：进攻犯规 (1 次犯规) (裁判：J.奥尔)</t>
   </si>
   <si>
@@ -192,9 +174,6 @@
     <t>拉塞尔 抢断 (1 次抢断)</t>
   </si>
   <si>
-    <t>L. 勒布朗-詹姆斯 三分投篮： 不中</t>
-  </si>
-  <si>
     <t>戴维斯 抢到篮板球 (进攻篮板:1 防守篮板:2)</t>
   </si>
   <si>
@@ -207,9 +186,6 @@
     <t>湖人 暂停 : 常规暂停</t>
   </si>
   <si>
-    <t>换人： 马克斯·克里斯蒂 替换 L. 勒布朗-詹姆斯</t>
-  </si>
-  <si>
     <t>戴维斯 撤步跳投： 命中(4 分)</t>
   </si>
   <si>
@@ -306,9 +282,6 @@
     <t>戈贝尔 (两罚)第一罚 命中(3 分)</t>
   </si>
   <si>
-    <t>换人： L. 勒布朗-詹姆斯 替换 里维斯</t>
-  </si>
-  <si>
     <t>换人： 贾克森-海耶斯 替换 八村塁</t>
   </si>
   <si>
@@ -363,9 +336,6 @@
     <t>朱利叶斯-兰德尔 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
   </si>
   <si>
-    <t>L. 勒布朗-詹姆斯 犯规: 投篮犯规 (1 次犯规) (裁判:J.威廉姆斯吹罚)</t>
-  </si>
-  <si>
     <t>迪温琴佐 (两罚)第一罚 不中</t>
   </si>
   <si>
@@ -388,12 +358,6 @@
   </si>
   <si>
     <t>拿斯列特 三分 勾手擦板： 命中(3 分) (迪温琴佐 3 次助攻)</t>
-  </si>
-  <si>
-    <t>L. 勒布朗-詹姆斯 空切上篮： 不中</t>
-  </si>
-  <si>
-    <t>L. 勒布朗-詹姆斯 失误：走步 (1 次失误)</t>
   </si>
   <si>
     <t>迪温琴佐 快攻抛投： 不中</t>
@@ -616,12 +580,6 @@
     <t>拿斯列特 突破上篮： 不中</t>
   </si>
   <si>
-    <t>L. 勒布朗-詹姆斯 抢到篮板球 (进攻篮板:0 防守篮板:3)</t>
-  </si>
-  <si>
-    <t>L. 勒布朗-詹姆斯 行进间挑篮： 命中(6 分)</t>
-  </si>
-  <si>
     <t>换人： 杰登-麦克丹尼尔斯 替换 尼基尔-亚历山大-沃克</t>
   </si>
   <si>
@@ -646,9 +604,6 @@
     <t>换人： 戴维斯 替换 贾克森-海耶斯</t>
   </si>
   <si>
-    <t>换人： 里维斯 替换 L. 勒布朗-詹姆斯</t>
-  </si>
-  <si>
     <t>杰登-麦克丹尼尔斯 犯规: 投篮犯规 (3 次犯规) (裁判：J.奥尔)</t>
   </si>
   <si>
@@ -772,15 +727,6 @@
     <t>爱德华兹 一次罚球 命中(14 分)</t>
   </si>
   <si>
-    <t>换人： L. 勒布朗-詹姆斯 替换 文森特</t>
-  </si>
-  <si>
-    <t>换人： B. 勒布朗-詹姆斯 替换 八村塁</t>
-  </si>
-  <si>
-    <t>L. 勒布朗-詹姆斯 三分远投： 不中</t>
-  </si>
-  <si>
     <t>戈贝尔 抢到篮板球 (进攻篮板:1 防守篮板:6)</t>
   </si>
   <si>
@@ -790,12 +736,6 @@
     <t>戴维斯 三分远投： 不中</t>
   </si>
   <si>
-    <t>B. 勒布朗-詹姆斯 抢到篮板球 (进攻篮板:1 防守篮板:0)</t>
-  </si>
-  <si>
-    <t>B. 勒布朗-詹姆斯 补篮： 不中</t>
-  </si>
-  <si>
     <t>戈贝尔 封盖 (1 次封盖)</t>
   </si>
   <si>
@@ -805,9 +745,6 @@
     <t>乔-英格尔斯 三分投篮： 不中</t>
   </si>
   <si>
-    <t>L. 勒布朗-詹姆斯 急停跳投： 不中</t>
-  </si>
-  <si>
     <t>爱德华兹 抢到篮板球 (进攻篮板:0 防守篮板:3)</t>
   </si>
   <si>
@@ -817,15 +754,9 @@
     <t>戈贝尔 补扣： 命中(5 分)</t>
   </si>
   <si>
-    <t>L. 勒布朗-詹姆斯 空切扣篮： 命中(8 分) (里维斯 2 次助攻)</t>
-  </si>
-  <si>
     <t>尼基尔-亚历山大-沃克 三分投篮： 命中(7 分) (乔-英格尔斯 1 次助攻)</t>
   </si>
   <si>
-    <t>B. 勒布朗-詹姆斯 三分投篮： 不中</t>
-  </si>
-  <si>
     <t>朱利叶斯-兰德尔 抢到篮板球 (进攻篮板:0 防守篮板:3)</t>
   </si>
   <si>
@@ -841,9 +772,6 @@
     <t>换人： 马克斯·克里斯蒂 替换 克内克特</t>
   </si>
   <si>
-    <t>换人： 拉塞尔 替换 B. 勒布朗-詹姆斯</t>
-  </si>
-  <si>
     <t>戴维斯 漂移跳投： 不中</t>
   </si>
   <si>
@@ -997,9 +925,6 @@
     <t>第3节开始.</t>
   </si>
   <si>
-    <t>戴维斯 空中接力灌篮： 命中(14 分) (L. 勒布朗-詹姆斯 1 次助攻)</t>
-  </si>
-  <si>
     <t>康利 抢到篮板球 (进攻篮板:2 防守篮板:0)</t>
   </si>
   <si>
@@ -1012,9 +937,6 @@
     <t>杰登-麦克丹尼尔斯 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
   </si>
   <si>
-    <t>L. 勒布朗-詹姆斯 犯规: 个人犯规 (2 次失误) (裁判：J.奥尔)</t>
-  </si>
-  <si>
     <t>康利 三分投篮： 不中</t>
   </si>
   <si>
@@ -1117,9 +1039,6 @@
     <t>戴维斯 抢到篮板球 (进攻篮板:2 防守篮板:8)</t>
   </si>
   <si>
-    <t>L. 勒布朗-詹姆斯 行进间上篮： 不中</t>
-  </si>
-  <si>
     <t>戈贝尔 抢到篮板球 (进攻篮板:2 防守篮板:9)</t>
   </si>
   <si>
@@ -1240,9 +1159,6 @@
     <t>换人： 贾克森-海耶斯 替换 里维斯</t>
   </si>
   <si>
-    <t>换人： L. 勒布朗-詹姆斯 替换 八村塁</t>
-  </si>
-  <si>
     <t>戴维斯 一次罚球 命中(22 分)</t>
   </si>
   <si>
@@ -1270,9 +1186,6 @@
     <t>朱利叶斯-兰德尔 漂移跳投： 命中(8 分)</t>
   </si>
   <si>
-    <t>贾克森-海耶斯 空接上篮： 命中(8 分) (L. 勒布朗-詹姆斯 2 次助攻)</t>
-  </si>
-  <si>
     <t>爱德华兹 撤步跳投： 命中(19 分)</t>
   </si>
   <si>
@@ -1444,24 +1357,15 @@
     <t>拿斯列特 (两罚)第二罚 命中(9 分)</t>
   </si>
   <si>
-    <t>L. 勒布朗-詹姆斯 突破上篮： 命中(10 分)</t>
-  </si>
-  <si>
     <t>戈贝尔 犯规: 投篮犯规 (2 次犯规) (裁判：N.布赫特吹罚)</t>
   </si>
   <si>
-    <t>L. 勒布朗-詹姆斯 一次罚球 命中(11 分)</t>
-  </si>
-  <si>
     <t>贾克森-海耶斯 犯规: 无球犯规 (3 次失误) (裁判：J.奥尔)</t>
   </si>
   <si>
     <t>戈贝尔 空中接力灌篮： 命中(11 分) (康利 2 次助攻)</t>
   </si>
   <si>
-    <t>L. 勒布朗-詹姆斯 转身后仰打板： 不中</t>
-  </si>
-  <si>
     <t>戈贝尔 抢到篮板球 (进攻篮板:2 防守篮板:10)</t>
   </si>
   <si>
@@ -1498,229 +1402,326 @@
     <t>里维斯 抢到篮板球 (进攻篮板:4 防守篮板:4)</t>
   </si>
   <si>
-    <t>L. 勒布朗-詹姆斯 行进 空接上篮： 投篮： 命中(13 分) (拉塞尔 4 次助攻)</t>
+    <t>戈贝尔 犯规: 无球犯规 (3 次失误) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>迪温琴佐 犯规: 个人犯规 (2 次失误) (裁判：J.奥尔)</t>
+  </si>
+  <si>
+    <t>贾克森-海耶斯 空中接力灌篮： 命中(10 分) (拉塞尔 5 次助攻)</t>
+  </si>
+  <si>
+    <t>换人： 朱利叶斯-兰德尔 替换 康利</t>
+  </si>
+  <si>
+    <t>换人： 尼基尔-亚历山大-沃克 替换 戈贝尔</t>
+  </si>
+  <si>
+    <t>爱德华兹 三分远投： 命中(22 分)</t>
+  </si>
+  <si>
+    <t>爱德华兹 抢到篮板球 (进攻篮板:0 防守篮板:6)</t>
+  </si>
+  <si>
+    <t>爱德华兹 突破挑篮： 不中</t>
+  </si>
+  <si>
+    <t>尼基尔-亚历山大-沃克 抢到篮板球 (进攻篮板:2 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>里维斯 抢到篮板球 (进攻篮板:4 防守篮板:5)</t>
+  </si>
+  <si>
+    <t>拿斯列特 犯规: 投篮犯规 (2 次犯规)(2 罚球出手) (裁判:J.威廉姆斯吹罚)</t>
+  </si>
+  <si>
+    <t>八村塁 (两罚)第一罚 不中</t>
+  </si>
+  <si>
+    <t>八村塁 (两罚)第二罚 命中(16 分)</t>
+  </si>
+  <si>
+    <t>爱德华兹 挑篮上篮： 不中</t>
+  </si>
+  <si>
+    <t>戴维斯 抢到篮板球 (进攻篮板:2 防守篮板:11)</t>
+  </si>
+  <si>
+    <t>朱利叶斯-兰德尔 犯规: 个人犯规 (3 次犯规)(2 罚球出手) (裁判:J.威廉姆斯吹罚)</t>
+  </si>
+  <si>
+    <t>戴维斯 (两罚)第一罚 命中(26 分)</t>
+  </si>
+  <si>
+    <t>朱利叶斯-兰德尔 抢到篮板球 (进攻篮板:1 防守篮板:6)</t>
+  </si>
+  <si>
+    <t>戴维斯 封盖 (2 次封盖)</t>
+  </si>
+  <si>
+    <t>爱德华兹 撤步跳投： 命中(24 分)</t>
+  </si>
+  <si>
+    <t>戴维斯 后仰跳投： 命中(28 分)</t>
+  </si>
+  <si>
+    <t>爱德华兹 急停跳投： 不中</t>
+  </si>
+  <si>
+    <t>戴维斯 抢到篮板球 (进攻篮板:2 防守篮板:12)</t>
+  </si>
+  <si>
+    <t>拿斯列特 犯规: 投篮犯规 (3 次犯规)(2 罚球出手) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>戴维斯 (两罚)第一罚 命中(29 分)</t>
+  </si>
+  <si>
+    <t>戴维斯 (两罚)第二罚 命中(30 分)</t>
+  </si>
+  <si>
+    <t>爱德华兹 突破上篮： 命中(26 分)</t>
+  </si>
+  <si>
+    <t>八村塁 转身后仰投篮： 命中(18 分) (戴维斯 4 次助攻)</t>
+  </si>
+  <si>
+    <t>换人： 戈贝尔 替换 拿斯列特</t>
+  </si>
+  <si>
+    <t>尼基尔-亚历山大-沃克 三分投篮： 命中(12 分) (爱德华兹 1 次助攻)</t>
+  </si>
+  <si>
+    <t>尼基尔-亚历山大-沃克 违例：脚踢球 (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>戴维斯 抢到篮板球 (进攻篮板:3 防守篮板:12)</t>
+  </si>
+  <si>
+    <t>戴维斯 补篮： 命中(32 分)</t>
+  </si>
+  <si>
+    <t>尼基尔-亚历山大-沃克 快攻抛投： 命中(14 分) (爱德华兹 2 次助攻)</t>
+  </si>
+  <si>
+    <t>戈贝尔 突破上篮： 命中(13 分) (爱德华兹 3 次助攻)</t>
+  </si>
+  <si>
+    <t>文森特 失误：传球出界 (2 次失误)</t>
+  </si>
+  <si>
+    <t>迪温琴佐 空切扣篮： 不中</t>
+  </si>
+  <si>
+    <t>戴维斯 封盖 (3 次封盖)</t>
+  </si>
+  <si>
+    <t>文森特 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>戴维斯 抢到篮板球 (进攻篮板:3 防守篮板:13)</t>
+  </si>
+  <si>
+    <t>戈贝尔 犯规: 个人犯规 (4 次犯规)(2 罚球出手) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>戴维斯 (两罚)第一罚 命中(35 分)</t>
+  </si>
+  <si>
+    <t>换人： 八村塁 替换 文森特</t>
+  </si>
+  <si>
+    <t>戴维斯 (两罚)第二罚 命中(36 分)</t>
+  </si>
+  <si>
+    <t>朱利叶斯-兰德尔 抢到篮板球 (进攻篮板:2 防守篮板:6)</t>
+  </si>
+  <si>
+    <t>朱利叶斯-兰德尔 直接补篮： 命中(11 分)</t>
+  </si>
+  <si>
+    <t>里维斯 犯规: 投篮犯规 (4 次犯规) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>朱利叶斯-兰德尔 一次罚球 命中(12 分)</t>
+  </si>
+  <si>
+    <t>戴维斯 违例：脚踢球 (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>戴维斯 犯规: 个人犯规 (1 次犯规)(2 罚球出手) (裁判:J.威廉姆斯吹罚)</t>
+  </si>
+  <si>
+    <t>爱德华兹 (两罚)第一罚 命中(27 分)</t>
+  </si>
+  <si>
+    <t>爱德华兹 (两罚)第二罚 不中</t>
+  </si>
+  <si>
+    <t>朱利叶斯-兰德尔 (两罚)第一罚 命中(13 分)</t>
+  </si>
+  <si>
+    <t>朱利叶斯-兰德尔 (两罚)第二罚 命中(14 分)</t>
+  </si>
+  <si>
+    <t>尼基尔-亚历山大-沃克 抢到篮板球 (进攻篮板:2 防守篮板:3)</t>
+  </si>
+  <si>
+    <t>八村塁 行进间上篮： 不中</t>
+  </si>
+  <si>
+    <t>戈贝尔 抢到篮板球 (进攻篮板:3 防守篮板:11)</t>
+  </si>
+  <si>
+    <t>换人： 拿斯列特 替换 戈贝尔</t>
+  </si>
+  <si>
+    <t>朱利叶斯-兰德尔 抢到篮板球 (进攻篮板:3 防守篮板:6)</t>
+  </si>
+  <si>
+    <t>朱利叶斯-兰德尔 补篮： 命中(16 分)</t>
+  </si>
+  <si>
+    <t>朱利叶斯-兰德尔 突破上篮： 不中</t>
+  </si>
+  <si>
+    <t>第4节结束.</t>
+  </si>
+  <si>
+    <t>全场结束.</t>
   </si>
   <si>
     <t>贾克森-海耶斯 封盖 (1 次封盖)</t>
-  </si>
-  <si>
-    <t>戈贝尔 犯规: 无球犯规 (3 次失误) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>迪温琴佐 犯规: 个人犯规 (2 次失误) (裁判：J.奥尔)</t>
-  </si>
-  <si>
-    <t>贾克森-海耶斯 空中接力灌篮： 命中(10 分) (拉塞尔 5 次助攻)</t>
-  </si>
-  <si>
-    <t>换人： 朱利叶斯-兰德尔 替换 康利</t>
-  </si>
-  <si>
-    <t>换人： 尼基尔-亚历山大-沃克 替换 戈贝尔</t>
-  </si>
-  <si>
-    <t>爱德华兹 三分远投： 命中(22 分)</t>
-  </si>
-  <si>
-    <t>爱德华兹 抢到篮板球 (进攻篮板:0 防守篮板:6)</t>
-  </si>
-  <si>
-    <t>爱德华兹 突破挑篮： 不中</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 抢到篮板球 (进攻篮板:2 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>里维斯 抢到篮板球 (进攻篮板:4 防守篮板:5)</t>
-  </si>
-  <si>
-    <t>拿斯列特 犯规: 投篮犯规 (2 次犯规)(2 罚球出手) (裁判:J.威廉姆斯吹罚)</t>
-  </si>
-  <si>
-    <t>八村塁 (两罚)第一罚 不中</t>
-  </si>
-  <si>
-    <t>换人： 文森特 替换 L. 勒布朗-詹姆斯</t>
-  </si>
-  <si>
-    <t>八村塁 (两罚)第二罚 命中(16 分)</t>
-  </si>
-  <si>
-    <t>爱德华兹 挑篮上篮： 不中</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:2 防守篮板:11)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 犯规: 个人犯规 (3 次犯规)(2 罚球出手) (裁判:J.威廉姆斯吹罚)</t>
-  </si>
-  <si>
-    <t>戴维斯 (两罚)第一罚 命中(26 分)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 抢到篮板球 (进攻篮板:1 防守篮板:6)</t>
-  </si>
-  <si>
-    <t>戴维斯 封盖 (2 次封盖)</t>
-  </si>
-  <si>
-    <t>爱德华兹 撤步跳投： 命中(24 分)</t>
-  </si>
-  <si>
-    <t>戴维斯 后仰跳投： 命中(28 分)</t>
-  </si>
-  <si>
-    <t>爱德华兹 急停跳投： 不中</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:2 防守篮板:12)</t>
-  </si>
-  <si>
-    <t>拿斯列特 犯规: 投篮犯规 (3 次犯规)(2 罚球出手) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>戴维斯 (两罚)第一罚 命中(29 分)</t>
-  </si>
-  <si>
-    <t>戴维斯 (两罚)第二罚 命中(30 分)</t>
-  </si>
-  <si>
-    <t>爱德华兹 突破上篮： 命中(26 分)</t>
-  </si>
-  <si>
-    <t>八村塁 转身后仰投篮： 命中(18 分) (戴维斯 4 次助攻)</t>
-  </si>
-  <si>
-    <t>换人： 戈贝尔 替换 拿斯列特</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 三分投篮： 命中(12 分) (爱德华兹 1 次助攻)</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 违例：脚踢球 (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>L. 勒布朗-詹姆斯 跳投 不中</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:3 防守篮板:12)</t>
-  </si>
-  <si>
-    <t>戴维斯 补篮： 命中(32 分)</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 快攻抛投： 命中(14 分) (爱德华兹 2 次助攻)</t>
-  </si>
-  <si>
-    <t>戴维斯 快攻抛投： 命中(34 分) (L. 勒布朗-詹姆斯 3 次助攻)</t>
-  </si>
-  <si>
-    <t>戈贝尔 突破上篮： 命中(13 分) (爱德华兹 3 次助攻)</t>
-  </si>
-  <si>
-    <t>文森特 失误：传球出界 (2 次失误)</t>
-  </si>
-  <si>
-    <t>迪温琴佐 空切扣篮： 不中</t>
-  </si>
-  <si>
-    <t>戴维斯 封盖 (3 次封盖)</t>
-  </si>
-  <si>
-    <t>文森特 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
-  </si>
-  <si>
-    <t>里维斯 行进间上篮： 命中(12 分) (L. 勒布朗-詹姆斯 4 次助攻)</t>
-  </si>
-  <si>
-    <t>戴维斯 抢到篮板球 (进攻篮板:3 防守篮板:13)</t>
-  </si>
-  <si>
-    <t>戈贝尔 犯规: 个人犯规 (4 次犯规)(2 罚球出手) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>戴维斯 (两罚)第一罚 命中(35 分)</t>
-  </si>
-  <si>
-    <t>换人： 八村塁 替换 文森特</t>
-  </si>
-  <si>
-    <t>戴维斯 (两罚)第二罚 命中(36 分)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 抢到篮板球 (进攻篮板:2 防守篮板:6)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 直接补篮： 命中(11 分)</t>
-  </si>
-  <si>
-    <t>里维斯 犯规: 投篮犯规 (4 次犯规) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 一次罚球 命中(12 分)</t>
-  </si>
-  <si>
-    <t>L. 勒布朗-詹姆斯 三分远投： 命中(16 分)</t>
-  </si>
-  <si>
-    <t>戴维斯 违例：脚踢球 (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>戴维斯 犯规: 个人犯规 (1 次犯规)(2 罚球出手) (裁判:J.威廉姆斯吹罚)</t>
-  </si>
-  <si>
-    <t>爱德华兹 (两罚)第一罚 命中(27 分)</t>
-  </si>
-  <si>
-    <t>爱德华兹 (两罚)第二罚 不中</t>
-  </si>
-  <si>
-    <t>L. 勒布朗-詹姆斯 犯规: 无球犯规 (3 次犯规)(2 罚球出手) (裁判：N.布赫特吹罚)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 (两罚)第一罚 命中(13 分)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 (两罚)第二罚 命中(14 分)</t>
-  </si>
-  <si>
-    <t>尼基尔-亚历山大-沃克 抢到篮板球 (进攻篮板:2 防守篮板:3)</t>
-  </si>
-  <si>
-    <t>L. 勒布朗-詹姆斯 抢到篮板球 (进攻篮板:0 防守篮板:4)</t>
-  </si>
-  <si>
-    <t>八村塁 行进间上篮： 不中</t>
-  </si>
-  <si>
-    <t>戈贝尔 抢到篮板球 (进攻篮板:3 防守篮板:11)</t>
-  </si>
-  <si>
-    <t>换人： 拿斯列特 替换 戈贝尔</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 抢到篮板球 (进攻篮板:3 防守篮板:6)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 补篮： 命中(16 分)</t>
-  </si>
-  <si>
-    <t>L. 勒布朗-詹姆斯 失误：传球出界 (2 次失误)</t>
-  </si>
-  <si>
-    <t>朱利叶斯-兰德尔 突破上篮： 不中</t>
-  </si>
-  <si>
-    <t>L. 勒布朗-詹姆斯 封盖 (2 次封盖)</t>
-  </si>
-  <si>
-    <t>L. 勒布朗-詹姆斯 抢到篮板球 (进攻篮板:0 防守篮板:5)</t>
-  </si>
-  <si>
-    <t>第4节结束.</t>
-  </si>
-  <si>
-    <t>全场结束.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 抢到篮板球 (进攻篮板:0 防守篮板:1)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 突破打板勾手投篮： 不中</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 封盖 (1 次封盖)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 抢到篮板球 (进攻篮板:0 防守篮板:2)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 行进间上篮： 命中(2 分) (戴维斯 2 次助攻)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 行进间灌篮： 命中(4 分) (里维斯 1 次助攻)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 三分投篮： 不中</t>
+  </si>
+  <si>
+    <t>换人： 马克斯·克里斯蒂 替换 L.勒布朗-詹姆斯</t>
+  </si>
+  <si>
+    <t>换人： L.勒布朗-詹姆斯 替换 里维斯</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 犯规: 投篮犯规 (1 次犯规) (裁判:J.威廉姆斯吹罚)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 空切上篮： 不中</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 失误：走步 (1 次失误)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 抢到篮板球 (进攻篮板:0 防守篮板:3)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 行进间挑篮： 命中(6 分)</t>
+  </si>
+  <si>
+    <t>换人： 里维斯 替换 L.勒布朗-詹姆斯</t>
+  </si>
+  <si>
+    <t>换人： L.勒布朗-詹姆斯 替换 文森特</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 三分远投： 不中</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 急停跳投： 不中</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 空切扣篮： 命中(8 分) (里维斯 2 次助攻)</t>
+  </si>
+  <si>
+    <t>戴维斯 空中接力灌篮： 命中(14 分) (L.勒布朗-詹姆斯 1 次助攻)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 犯规: 个人犯规 (2 次失误) (裁判：J.奥尔)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 行进间上篮： 不中</t>
+  </si>
+  <si>
+    <t>换人： L.勒布朗-詹姆斯 替换 八村塁</t>
+  </si>
+  <si>
+    <t>贾克森-海耶斯 空接上篮： 命中(8 分) (L.勒布朗-詹姆斯 2 次助攻)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 突破上篮： 命中(10 分)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 一次罚球 命中(11 分)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 转身后仰打板： 不中</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 行进 空接上篮： 投篮： 命中(13 分) (拉塞尔 4 次助攻)</t>
+  </si>
+  <si>
+    <t>换人： 文森特 替换 L.勒布朗-詹姆斯</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 跳投 不中</t>
+  </si>
+  <si>
+    <t>戴维斯 快攻抛投： 命中(34 分) (L.勒布朗-詹姆斯 3 次助攻)</t>
+  </si>
+  <si>
+    <t>里维斯 行进间上篮： 命中(12 分) (L.勒布朗-詹姆斯 4 次助攻)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 三分远投： 命中(16 分)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 犯规: 无球犯规 (3 次犯规)(2 罚球出手) (裁判：N.布赫特吹罚)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 抢到篮板球 (进攻篮板:0 防守篮板:4)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 失误：传球出界 (2 次失误)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 封盖 (2 次封盖)</t>
+  </si>
+  <si>
+    <t>L.勒布朗-詹姆斯 抢到篮板球 (进攻篮板:0 防守篮板:5)</t>
+  </si>
+  <si>
+    <t>换人： B.勒布朗-詹姆斯 替换 八村塁</t>
+  </si>
+  <si>
+    <t>B.勒布朗-詹姆斯 抢到篮板球 (进攻篮板:1 防守篮板:0)</t>
+  </si>
+  <si>
+    <t>B.勒布朗-詹姆斯 补篮： 不中</t>
+  </si>
+  <si>
+    <t>B.勒布朗-詹姆斯 三分投篮： 不中</t>
+  </si>
+  <si>
+    <t>换人： 拉塞尔 替换 B.勒布朗-詹姆斯</t>
   </si>
 </sst>
 </file>
@@ -2049,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D508"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C589" sqref="C589"/>
+    <sheetView tabSelected="1" topLeftCell="A299" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2115,7 @@
         <v>0.47847222222222224</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>518</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -2125,7 +2126,7 @@
         <v>0.47083333333333333</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -2136,7 +2137,7 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -2147,10 +2148,10 @@
         <v>0.44583333333333336</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2158,10 +2159,10 @@
         <v>0.43263888888888891</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2169,10 +2170,10 @@
         <v>0.41458333333333336</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2180,10 +2181,10 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>519</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2191,10 +2192,10 @@
         <v>0.39791666666666664</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2202,10 +2203,10 @@
         <v>0.39513888888888887</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2213,10 +2214,10 @@
         <v>0.39513888888888887</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>520</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2224,10 +2225,10 @@
         <v>0.39374999999999999</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>521</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2235,10 +2236,10 @@
         <v>0.39166666666666666</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2246,10 +2247,10 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2257,10 +2258,10 @@
         <v>0.38819444444444445</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2268,10 +2269,10 @@
         <v>0.38611111111111113</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2279,10 +2280,10 @@
         <v>0.37638888888888888</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2290,10 +2291,10 @@
         <v>0.37638888888888888</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2301,10 +2302,10 @@
         <v>0.37361111111111112</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2312,10 +2313,10 @@
         <v>0.37222222222222223</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>522</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2323,10 +2324,10 @@
         <v>0.36527777777777776</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2334,10 +2335,10 @@
         <v>0.36041666666666666</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2345,10 +2346,10 @@
         <v>0.36041666666666666</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2356,10 +2357,10 @@
         <v>0.3576388888888889</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>523</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2367,10 +2368,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2378,10 +2379,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2389,10 +2390,10 @@
         <v>0.34513888888888888</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2400,10 +2401,10 @@
         <v>0.34305555555555556</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2411,10 +2412,10 @@
         <v>0.34027777777777779</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2422,10 +2423,10 @@
         <v>0.33888888888888891</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2433,10 +2434,10 @@
         <v>0.33888888888888891</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2444,10 +2445,10 @@
         <v>0.33888888888888891</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2455,10 +2456,10 @@
         <v>0.33611111111111114</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2466,10 +2467,10 @@
         <v>0.31944444444444442</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2477,10 +2478,10 @@
         <v>0.31736111111111109</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2488,10 +2489,10 @@
         <v>0.30902777777777779</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2499,10 +2500,10 @@
         <v>0.30902777777777779</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2510,10 +2511,10 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>524</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2521,10 +2522,10 @@
         <v>0.29930555555555555</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2532,10 +2533,10 @@
         <v>0.29791666666666666</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2543,10 +2544,10 @@
         <v>0.28055555555555556</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2554,10 +2555,10 @@
         <v>0.28055555555555556</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2565,10 +2566,10 @@
         <v>0.28055555555555556</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>525</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2576,10 +2577,10 @@
         <v>0.2673611111111111</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2587,10 +2588,10 @@
         <v>0.25416666666666665</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2598,10 +2599,10 @@
         <v>0.25416666666666665</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2609,10 +2610,10 @@
         <v>0.25416666666666665</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2620,10 +2621,10 @@
         <v>0.25416666666666665</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2631,10 +2632,10 @@
         <v>0.25416666666666665</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2642,10 +2643,10 @@
         <v>0.24583333333333332</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2653,10 +2654,10 @@
         <v>0.23680555555555555</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2664,10 +2665,10 @@
         <v>0.23472222222222222</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2675,10 +2676,10 @@
         <v>0.23333333333333334</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2686,10 +2687,10 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2697,10 +2698,10 @@
         <v>0.22013888888888888</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2708,10 +2709,10 @@
         <v>0.21458333333333332</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D60" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2719,10 +2720,10 @@
         <v>0.21458333333333332</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2730,10 +2731,10 @@
         <v>0.21111111111111111</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2741,10 +2742,10 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D63" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2752,10 +2753,10 @@
         <v>0.2048611111111111</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D64" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2763,10 +2764,10 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2774,10 +2775,10 @@
         <v>0.18888888888888888</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D66" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2785,10 +2786,10 @@
         <v>0.18541666666666667</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D67" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2796,10 +2797,10 @@
         <v>0.17083333333333334</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2807,10 +2808,10 @@
         <v>0.17083333333333334</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2818,10 +2819,10 @@
         <v>0.16527777777777777</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2829,10 +2830,10 @@
         <v>0.16041666666666668</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2840,10 +2841,10 @@
         <v>0.16041666666666668</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2851,10 +2852,10 @@
         <v>0.15555555555555556</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D73" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2862,10 +2863,10 @@
         <v>0.14374999999999999</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2873,10 +2874,10 @@
         <v>0.14166666666666666</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D75" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2884,10 +2885,10 @@
         <v>0.12916666666666668</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D76" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2895,10 +2896,10 @@
         <v>0.12777777777777777</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D77" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2906,10 +2907,10 @@
         <v>0.12708333333333333</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2920,7 +2921,7 @@
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2928,7 +2929,7 @@
         <v>0.12708333333333333</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>526</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>6</v>
@@ -2939,7 +2940,7 @@
         <v>0.12708333333333333</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>6</v>
@@ -2953,7 +2954,7 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2964,7 +2965,7 @@
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,7 +2973,7 @@
         <v>0.12361111111111112</v>
       </c>
       <c r="B84" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>6</v>
@@ -2983,7 +2984,7 @@
         <v>0.1125</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>6</v>
@@ -2997,7 +2998,7 @@
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3008,7 +3009,7 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3019,7 +3020,7 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3030,7 +3031,7 @@
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3041,7 +3042,7 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3049,7 +3050,7 @@
         <v>9.166666666666666E-2</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>8</v>
@@ -3060,7 +3061,7 @@
         <v>9.166666666666666E-2</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -3074,7 +3075,7 @@
         <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3082,7 +3083,7 @@
         <v>6.805555555555555E-2</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>10</v>
@@ -3093,7 +3094,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>10</v>
@@ -3104,7 +3105,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>10</v>
@@ -3118,7 +3119,7 @@
         <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3137,7 +3138,7 @@
         <v>5.7638888888888892E-2</v>
       </c>
       <c r="B99" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>10</v>
@@ -3148,7 +3149,7 @@
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="B100" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>10</v>
@@ -3162,7 +3163,7 @@
         <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3170,7 +3171,7 @@
         <v>4.7222222222222221E-2</v>
       </c>
       <c r="B102" t="s">
-        <v>112</v>
+        <v>527</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>10</v>
@@ -3184,7 +3185,7 @@
         <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3195,7 +3196,7 @@
         <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3203,7 +3204,7 @@
         <v>4.7222222222222221E-2</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>10</v>
@@ -3217,7 +3218,7 @@
         <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3225,7 +3226,7 @@
         <v>4.583333333333333E-2</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>10</v>
@@ -3239,7 +3240,7 @@
         <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3247,7 +3248,7 @@
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="B109" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>11</v>
@@ -3258,7 +3259,7 @@
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
@@ -3272,7 +3273,7 @@
         <v>13</v>
       </c>
       <c r="D111" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3280,7 +3281,7 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>528</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
@@ -3291,7 +3292,7 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="B113" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
@@ -3302,7 +3303,7 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>529</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>13</v>
@@ -3316,7 +3317,7 @@
         <v>13</v>
       </c>
       <c r="D115" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3327,7 +3328,7 @@
         <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3338,7 +3339,7 @@
         <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3346,7 +3347,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>14</v>
@@ -3357,10 +3358,10 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="B119" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3368,12 +3369,12 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,7 +3396,7 @@
         <v>0.5</v>
       </c>
       <c r="B123" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3403,7 +3404,7 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="B124" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>14</v>
@@ -3414,7 +3415,7 @@
         <v>0.48680555555555555</v>
       </c>
       <c r="B125" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
@@ -3425,10 +3426,10 @@
         <v>0.48541666666666666</v>
       </c>
       <c r="B126" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3436,10 +3437,10 @@
         <v>0.47361111111111109</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D127" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3447,10 +3448,10 @@
         <v>0.47152777777777777</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D128" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3458,10 +3459,10 @@
         <v>0.46805555555555556</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D129" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3469,10 +3470,10 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="B130" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3480,10 +3481,10 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="B131" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3491,10 +3492,10 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="B132" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3502,10 +3503,10 @@
         <v>0.43125000000000002</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D133" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3513,10 +3514,10 @@
         <v>0.43125000000000002</v>
       </c>
       <c r="B134" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3524,10 +3525,10 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="B135" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3535,10 +3536,10 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="B136" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3546,10 +3547,10 @@
         <v>0.41736111111111113</v>
       </c>
       <c r="B137" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3557,10 +3558,10 @@
         <v>0.4152777777777778</v>
       </c>
       <c r="B138" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3568,10 +3569,10 @@
         <v>0.40972222222222221</v>
       </c>
       <c r="B139" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3579,10 +3580,10 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D140" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3590,10 +3591,10 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D141" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3601,10 +3602,10 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="B142" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3612,10 +3613,10 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D143" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3623,10 +3624,10 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D144" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3634,10 +3635,10 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D145" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3645,10 +3646,10 @@
         <v>0.39374999999999999</v>
       </c>
       <c r="B146" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3656,10 +3657,10 @@
         <v>0.38124999999999998</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D147" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3667,10 +3668,10 @@
         <v>0.38124999999999998</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D148" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3678,10 +3679,10 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="B149" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3689,10 +3690,10 @@
         <v>0.36041666666666666</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D150" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3700,10 +3701,10 @@
         <v>0.35902777777777778</v>
       </c>
       <c r="B151" t="s">
-        <v>192</v>
+        <v>530</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3711,10 +3712,10 @@
         <v>0.35625000000000001</v>
       </c>
       <c r="B152" t="s">
-        <v>193</v>
+        <v>531</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3722,10 +3723,10 @@
         <v>0.35625000000000001</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D153" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3733,10 +3734,10 @@
         <v>0.35625000000000001</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D154" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3744,10 +3745,10 @@
         <v>0.35625000000000001</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D155" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3755,10 +3756,10 @@
         <v>0.34583333333333333</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D156" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3766,10 +3767,10 @@
         <v>0.34375</v>
       </c>
       <c r="B157" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3777,10 +3778,10 @@
         <v>0.33402777777777776</v>
       </c>
       <c r="B158" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3788,10 +3789,10 @@
         <v>0.32222222222222224</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D159" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3799,10 +3800,10 @@
         <v>0.31527777777777777</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D160" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3810,10 +3811,10 @@
         <v>0.31527777777777777</v>
       </c>
       <c r="B161" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3821,10 +3822,10 @@
         <v>0.31527777777777777</v>
       </c>
       <c r="B162" t="s">
-        <v>202</v>
+        <v>532</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3832,10 +3833,10 @@
         <v>0.30833333333333335</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D163" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3843,10 +3844,10 @@
         <v>0.30833333333333335</v>
       </c>
       <c r="B164" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3854,10 +3855,10 @@
         <v>0.30833333333333335</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D165" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3865,10 +3866,10 @@
         <v>0.30833333333333335</v>
       </c>
       <c r="B166" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3876,10 +3877,10 @@
         <v>0.30277777777777776</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D167" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3887,10 +3888,10 @@
         <v>0.30277777777777776</v>
       </c>
       <c r="B168" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3898,10 +3899,10 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="B169" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3909,10 +3910,10 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D170" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3920,10 +3921,10 @@
         <v>0.29652777777777778</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D171" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3931,10 +3932,10 @@
         <v>0.29652777777777778</v>
       </c>
       <c r="B172" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3942,10 +3943,10 @@
         <v>0.29444444444444445</v>
       </c>
       <c r="B173" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3953,10 +3954,10 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="B174" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3964,10 +3965,10 @@
         <v>0.28402777777777777</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D175" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3975,10 +3976,10 @@
         <v>0.28402777777777777</v>
       </c>
       <c r="B176" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3986,10 +3987,10 @@
         <v>0.28333333333333333</v>
       </c>
       <c r="B177" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3997,10 +3998,10 @@
         <v>0.28333333333333333</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D178" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4008,10 +4009,10 @@
         <v>0.28333333333333333</v>
       </c>
       <c r="B179" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4019,10 +4020,10 @@
         <v>0.28333333333333333</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D180" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4030,10 +4031,10 @@
         <v>0.28333333333333333</v>
       </c>
       <c r="B181" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4041,10 +4042,10 @@
         <v>0.28194444444444444</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D182" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4052,10 +4053,10 @@
         <v>0.2673611111111111</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D183" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4063,10 +4064,10 @@
         <v>0.26458333333333334</v>
       </c>
       <c r="B184" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4074,10 +4075,10 @@
         <v>0.25972222222222224</v>
       </c>
       <c r="B185" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4085,10 +4086,10 @@
         <v>0.24791666666666667</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D186" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4096,10 +4097,10 @@
         <v>0.2361111111111111</v>
       </c>
       <c r="B187" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4107,10 +4108,10 @@
         <v>0.22361111111111112</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D188" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4118,10 +4119,10 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="B189" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4129,10 +4130,10 @@
         <v>0.21875</v>
       </c>
       <c r="B190" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4140,10 +4141,10 @@
         <v>0.21666666666666667</v>
       </c>
       <c r="B191" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4151,10 +4152,10 @@
         <v>0.21597222222222223</v>
       </c>
       <c r="B192" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4162,10 +4163,10 @@
         <v>0.2048611111111111</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D193" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4173,10 +4174,10 @@
         <v>0.20277777777777778</v>
       </c>
       <c r="B194" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4184,10 +4185,10 @@
         <v>0.20069444444444445</v>
       </c>
       <c r="B195" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4195,10 +4196,10 @@
         <v>0.19791666666666666</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D196" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4206,10 +4207,10 @@
         <v>0.19375000000000001</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D197" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4217,10 +4218,10 @@
         <v>0.19375000000000001</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D198" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4228,10 +4229,10 @@
         <v>0.19375000000000001</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D199" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4239,10 +4240,10 @@
         <v>0.18263888888888888</v>
       </c>
       <c r="B200" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4250,10 +4251,10 @@
         <v>0.18263888888888888</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D201" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4261,10 +4262,10 @@
         <v>0.17777777777777778</v>
       </c>
       <c r="B202" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4272,10 +4273,10 @@
         <v>0.1736111111111111</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D203" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4283,10 +4284,10 @@
         <v>0.1736111111111111</v>
       </c>
       <c r="B204" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4294,10 +4295,10 @@
         <v>0.1736111111111111</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D205" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4305,10 +4306,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="B206" t="s">
-        <v>244</v>
+        <v>533</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4316,10 +4317,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="B207" t="s">
-        <v>245</v>
+        <v>556</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4327,10 +4328,10 @@
         <v>0.16388888888888889</v>
       </c>
       <c r="B208" t="s">
-        <v>246</v>
+        <v>534</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4338,10 +4339,10 @@
         <v>0.16111111111111112</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D209" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4349,10 +4350,10 @@
         <v>0.15416666666666667</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D210" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4360,10 +4361,10 @@
         <v>0.14444444444444443</v>
       </c>
       <c r="B211" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4371,10 +4372,10 @@
         <v>0.14166666666666666</v>
       </c>
       <c r="B212" t="s">
-        <v>250</v>
+        <v>557</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4382,10 +4383,10 @@
         <v>0.14166666666666666</v>
       </c>
       <c r="B213" t="s">
-        <v>251</v>
+        <v>558</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4393,10 +4394,10 @@
         <v>0.14166666666666666</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D214" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4404,10 +4405,10 @@
         <v>0.14166666666666666</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D215" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4415,10 +4416,10 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D216" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4426,10 +4427,10 @@
         <v>0.13055555555555556</v>
       </c>
       <c r="B217" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4437,10 +4438,10 @@
         <v>0.11388888888888889</v>
       </c>
       <c r="B218" t="s">
-        <v>255</v>
+        <v>535</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4448,10 +4449,10 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D219" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4459,10 +4460,10 @@
         <v>0.10555555555555556</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D220" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4470,10 +4471,10 @@
         <v>0.10208333333333333</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D221" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4481,10 +4482,10 @@
         <v>0.10208333333333333</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D222" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4492,10 +4493,10 @@
         <v>0.1</v>
       </c>
       <c r="B223" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4503,10 +4504,10 @@
         <v>9.3055555555555558E-2</v>
       </c>
       <c r="B224" t="s">
-        <v>259</v>
+        <v>536</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4514,10 +4515,10 @@
         <v>8.1250000000000003E-2</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D225" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4525,10 +4526,10 @@
         <v>6.805555555555555E-2</v>
       </c>
       <c r="B226" t="s">
-        <v>261</v>
+        <v>559</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4536,10 +4537,10 @@
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D227" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4547,10 +4548,10 @@
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D228" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4558,10 +4559,10 @@
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="B229" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4569,10 +4570,10 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D230" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4580,10 +4581,10 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="B231" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4591,10 +4592,10 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="B232" t="s">
-        <v>267</v>
+        <v>560</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4602,10 +4603,10 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="B233" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4613,10 +4614,10 @@
         <v>4.3749999999999997E-2</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D234" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4624,10 +4625,10 @@
         <v>3.6805555555555557E-2</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D235" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4635,10 +4636,10 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="B236" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4646,10 +4647,10 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D237" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4657,10 +4658,10 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="B238" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4668,10 +4669,10 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="B239" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4679,10 +4680,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D240" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4690,10 +4691,10 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="B241" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4701,10 +4702,10 @@
         <v>9.0277777777777769E-3</v>
       </c>
       <c r="B242" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4712,10 +4713,10 @@
         <v>7.6388888888888886E-3</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D243" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4723,10 +4724,10 @@
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="B244" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4734,10 +4735,10 @@
         <v>0</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D245" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4745,10 +4746,10 @@
         <v>0</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D246" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4756,12 +4757,12 @@
         <v>0</v>
       </c>
       <c r="B247" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4783,7 +4784,7 @@
         <v>0.5</v>
       </c>
       <c r="B250" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4791,10 +4792,10 @@
         <v>0.48888888888888887</v>
       </c>
       <c r="B251" t="s">
-        <v>319</v>
+        <v>537</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4802,10 +4803,10 @@
         <v>0.47986111111111113</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="D252" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -4813,10 +4814,10 @@
         <v>0.47708333333333336</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="D253" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -4824,10 +4825,10 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="D254" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -4835,10 +4836,10 @@
         <v>0.46041666666666664</v>
       </c>
       <c r="B255" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4846,10 +4847,10 @@
         <v>0.45902777777777776</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="D256" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4857,10 +4858,10 @@
         <v>0.45624999999999999</v>
       </c>
       <c r="B257" t="s">
-        <v>324</v>
+        <v>538</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4868,10 +4869,10 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="D258" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4879,10 +4880,10 @@
         <v>0.45069444444444445</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="D259" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4890,10 +4891,10 @@
         <v>0.45069444444444445</v>
       </c>
       <c r="B260" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4901,10 +4902,10 @@
         <v>0.44722222222222224</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="D261" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -4912,10 +4913,10 @@
         <v>0.4375</v>
       </c>
       <c r="B262" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -4923,10 +4924,10 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="D263" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -4934,10 +4935,10 @@
         <v>0.42430555555555555</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="D264" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -4945,10 +4946,10 @@
         <v>0.42291666666666666</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="D265" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -4956,10 +4957,10 @@
         <v>0.42291666666666666</v>
       </c>
       <c r="B266" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -4967,10 +4968,10 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="D267" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -4978,10 +4979,10 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="B268" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -4989,10 +4990,10 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="B269" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5000,10 +5001,10 @@
         <v>0.41944444444444445</v>
       </c>
       <c r="B270" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5011,10 +5012,10 @@
         <v>0.41597222222222224</v>
       </c>
       <c r="B271" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5022,10 +5023,10 @@
         <v>0.41458333333333336</v>
       </c>
       <c r="B272" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5033,10 +5034,10 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="D273" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5044,10 +5045,10 @@
         <v>0.40416666666666667</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="D274" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5055,10 +5056,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B275" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5066,10 +5067,10 @@
         <v>0.38124999999999998</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="D276" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5077,10 +5078,10 @@
         <v>0.37916666666666665</v>
       </c>
       <c r="B277" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5088,10 +5089,10 @@
         <v>0.37708333333333333</v>
       </c>
       <c r="B278" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5099,10 +5100,10 @@
         <v>0.37430555555555556</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="D279" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5110,10 +5111,10 @@
         <v>0.37152777777777779</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="D280" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5121,10 +5122,10 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="B281" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5132,10 +5133,10 @@
         <v>0.35972222222222222</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="D282" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5143,10 +5144,10 @@
         <v>0.35486111111111113</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="D283" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5154,10 +5155,10 @@
         <v>0.35347222222222224</v>
       </c>
       <c r="B284" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5165,10 +5166,10 @@
         <v>0.35138888888888886</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="D285" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5176,10 +5177,10 @@
         <v>0.35138888888888886</v>
       </c>
       <c r="B286" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5187,10 +5188,10 @@
         <v>0.35138888888888886</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="D287" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5198,10 +5199,10 @@
         <v>0.35138888888888886</v>
       </c>
       <c r="B288" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5209,10 +5210,10 @@
         <v>0.33750000000000002</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="D289" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5220,10 +5221,10 @@
         <v>0.32222222222222224</v>
       </c>
       <c r="B290" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5231,10 +5232,10 @@
         <v>0.32083333333333336</v>
       </c>
       <c r="B291" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5242,10 +5243,10 @@
         <v>0.31944444444444442</v>
       </c>
       <c r="B292" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5253,10 +5254,10 @@
         <v>0.31736111111111109</v>
       </c>
       <c r="B293" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5264,10 +5265,10 @@
         <v>0.31736111111111109</v>
       </c>
       <c r="B294" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5275,10 +5276,10 @@
         <v>0.31666666666666665</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="D295" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5286,10 +5287,10 @@
         <v>0.30694444444444446</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="D296" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5297,10 +5298,10 @@
         <v>0.30625000000000002</v>
       </c>
       <c r="B297" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5308,10 +5309,10 @@
         <v>0.3034722222222222</v>
       </c>
       <c r="B298" t="s">
-        <v>359</v>
+        <v>539</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5319,10 +5320,10 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="D299" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5330,10 +5331,10 @@
         <v>0.29722222222222222</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="D300" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5341,10 +5342,10 @@
         <v>0.29722222222222222</v>
       </c>
       <c r="B301" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5352,10 +5353,10 @@
         <v>0.29722222222222222</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="D302" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5363,10 +5364,10 @@
         <v>0.29097222222222224</v>
       </c>
       <c r="B303" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5374,10 +5375,10 @@
         <v>0.29097222222222224</v>
       </c>
       <c r="B304" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5385,10 +5386,10 @@
         <v>0.29097222222222224</v>
       </c>
       <c r="B305" t="s">
-        <v>60</v>
+        <v>525</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5396,10 +5397,10 @@
         <v>0.29097222222222224</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="D306" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5407,10 +5408,10 @@
         <v>0.29097222222222224</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="D307" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5418,10 +5419,10 @@
         <v>0.29097222222222224</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="D308" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5429,10 +5430,10 @@
         <v>0.28333333333333333</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="D309" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -5440,10 +5441,10 @@
         <v>0.28333333333333333</v>
       </c>
       <c r="B310" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5451,10 +5452,10 @@
         <v>0.28333333333333333</v>
       </c>
       <c r="B311" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5462,10 +5463,10 @@
         <v>0.27569444444444446</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="D312" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5473,10 +5474,10 @@
         <v>0.27430555555555558</v>
       </c>
       <c r="B313" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -5484,10 +5485,10 @@
         <v>0.26805555555555555</v>
       </c>
       <c r="B314" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -5495,10 +5496,10 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="D315" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -5506,10 +5507,10 @@
         <v>0.26180555555555557</v>
       </c>
       <c r="B316" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -5517,10 +5518,10 @@
         <v>0.26180555555555557</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="D317" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5528,10 +5529,10 @@
         <v>0.26180555555555557</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="D318" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -5539,10 +5540,10 @@
         <v>0.26180555555555557</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="D319" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -5550,10 +5551,10 @@
         <v>0.26180555555555557</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="D320" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -5561,10 +5562,10 @@
         <v>0.24861111111111112</v>
       </c>
       <c r="B321" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -5572,10 +5573,10 @@
         <v>0.24722222222222223</v>
       </c>
       <c r="B322" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -5583,10 +5584,10 @@
         <v>0.24513888888888888</v>
       </c>
       <c r="B323" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -5594,10 +5595,10 @@
         <v>0.23541666666666666</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="D324" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -5605,10 +5606,10 @@
         <v>0.23402777777777778</v>
       </c>
       <c r="B325" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -5616,10 +5617,10 @@
         <v>0.22847222222222222</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="D326" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -5627,10 +5628,10 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="B327" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -5638,10 +5639,10 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="D328" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -5649,10 +5650,10 @@
         <v>0.20347222222222222</v>
       </c>
       <c r="B329" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -5660,10 +5661,10 @@
         <v>0.20347222222222222</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="D330" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -5671,10 +5672,10 @@
         <v>0.19583333333333333</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D331" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -5682,10 +5683,10 @@
         <v>0.18194444444444444</v>
       </c>
       <c r="B332" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -5693,10 +5694,10 @@
         <v>0.18055555555555555</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="D333" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -5704,10 +5705,10 @@
         <v>0.17847222222222223</v>
       </c>
       <c r="B334" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -5715,10 +5716,10 @@
         <v>0.17847222222222223</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="D335" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -5726,10 +5727,10 @@
         <v>0.17847222222222223</v>
       </c>
       <c r="B336" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -5737,10 +5738,10 @@
         <v>0.17847222222222223</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="D337" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -5748,10 +5749,10 @@
         <v>0.16041666666666668</v>
       </c>
       <c r="B338" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -5759,10 +5760,10 @@
         <v>0.15069444444444444</v>
       </c>
       <c r="B339" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -5770,10 +5771,10 @@
         <v>0.15069444444444444</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="D340" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -5781,10 +5782,10 @@
         <v>0.15069444444444444</v>
       </c>
       <c r="B341" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -5792,10 +5793,10 @@
         <v>0.15069444444444444</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="D342" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -5803,10 +5804,10 @@
         <v>0.14305555555555555</v>
       </c>
       <c r="B343" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -5814,10 +5815,10 @@
         <v>0.13402777777777777</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="D344" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -5825,10 +5826,10 @@
         <v>0.125</v>
       </c>
       <c r="B345" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -5836,10 +5837,10 @@
         <v>0.125</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="D346" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -5847,10 +5848,10 @@
         <v>0.125</v>
       </c>
       <c r="B347" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -5858,10 +5859,10 @@
         <v>0.125</v>
       </c>
       <c r="B348" t="s">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -5869,10 +5870,10 @@
         <v>0.125</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="D349" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -5880,10 +5881,10 @@
         <v>0.125</v>
       </c>
       <c r="B350" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -5891,10 +5892,10 @@
         <v>0.11319444444444444</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="D351" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -5902,10 +5903,10 @@
         <v>0.10694444444444444</v>
       </c>
       <c r="B352" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -5913,10 +5914,10 @@
         <v>0.10555555555555556</v>
       </c>
       <c r="B353" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -5924,10 +5925,10 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="D354" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -5935,10 +5936,10 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="B355" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -5946,10 +5947,10 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="D356" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -5957,10 +5958,10 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="D357" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -5968,10 +5969,10 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="D358" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -5979,10 +5980,10 @@
         <v>9.3055555555555558E-2</v>
       </c>
       <c r="B359" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -5990,10 +5991,10 @@
         <v>7.7083333333333337E-2</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="D360" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -6001,10 +6002,10 @@
         <v>7.3611111111111113E-2</v>
       </c>
       <c r="B361" t="s">
-        <v>410</v>
+        <v>541</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -6012,10 +6013,10 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="D362" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -6023,10 +6024,10 @@
         <v>4.0972222222222222E-2</v>
       </c>
       <c r="B363" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -6034,10 +6035,10 @@
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="D364" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -6045,10 +6046,10 @@
         <v>3.6111111111111108E-2</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="D365" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -6056,10 +6057,10 @@
         <v>3.4027777777777775E-2</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="D366" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -6067,10 +6068,10 @@
         <v>3.4027777777777775E-2</v>
       </c>
       <c r="B367" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -6078,10 +6079,10 @@
         <v>3.4027777777777775E-2</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="D368" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -6089,10 +6090,10 @@
         <v>3.4027777777777775E-2</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="D369" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -6100,10 +6101,10 @@
         <v>3.1944444444444442E-2</v>
       </c>
       <c r="B370" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -6111,10 +6112,10 @@
         <v>2.013888888888889E-2</v>
       </c>
       <c r="B371" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -6122,10 +6123,10 @@
         <v>2.013888888888889E-2</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="D372" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -6133,10 +6134,10 @@
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="D373" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -6144,10 +6145,10 @@
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="B374" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -6155,10 +6156,10 @@
         <v>1.4583333333333334E-2</v>
       </c>
       <c r="B375" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -6166,10 +6167,10 @@
         <v>1.4583333333333334E-2</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="D376" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -6177,10 +6178,10 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="D377" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -6188,10 +6189,10 @@
         <v>9.0277777777777769E-3</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="D378" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -6199,10 +6200,10 @@
         <v>9.0277777777777769E-3</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="D379" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -6210,10 +6211,10 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="B380" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -6221,10 +6222,10 @@
         <v>0</v>
       </c>
       <c r="B381" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -6232,12 +6233,12 @@
         <v>0</v>
       </c>
       <c r="B382" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -6259,7 +6260,7 @@
         <v>0.5</v>
       </c>
       <c r="B385" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -6267,10 +6268,10 @@
         <v>0.49166666666666664</v>
       </c>
       <c r="B386" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -6278,10 +6279,10 @@
         <v>0.49166666666666664</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="D387" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -6289,10 +6290,10 @@
         <v>0.49166666666666664</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="D388" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -6300,10 +6301,10 @@
         <v>0.48194444444444445</v>
       </c>
       <c r="B389" t="s">
-        <v>468</v>
+        <v>542</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -6311,10 +6312,10 @@
         <v>0.48194444444444445</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="D390" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -6322,10 +6323,10 @@
         <v>0.48194444444444445</v>
       </c>
       <c r="B391" t="s">
-        <v>470</v>
+        <v>543</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -6333,10 +6334,10 @@
         <v>0.47152777777777777</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="D392" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -6344,10 +6345,10 @@
         <v>0.47152777777777777</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="D393" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -6355,10 +6356,10 @@
         <v>0.47152777777777777</v>
       </c>
       <c r="B394" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -6366,10 +6367,10 @@
         <v>0.46666666666666667</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="D395" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -6377,10 +6378,10 @@
         <v>0.44861111111111113</v>
       </c>
       <c r="B396" t="s">
-        <v>473</v>
+        <v>544</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -6388,10 +6389,10 @@
         <v>0.4465277777777778</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="D397" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -6399,10 +6400,10 @@
         <v>0.44305555555555554</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="D398" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -6410,10 +6411,10 @@
         <v>0.43819444444444444</v>
       </c>
       <c r="B399" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -6421,10 +6422,10 @@
         <v>0.43819444444444444</v>
       </c>
       <c r="B400" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -6432,10 +6433,10 @@
         <v>0.42777777777777776</v>
       </c>
       <c r="B401" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -6443,10 +6444,10 @@
         <v>0.42569444444444443</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="D402" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -6454,10 +6455,10 @@
         <v>0.41944444444444445</v>
       </c>
       <c r="B403" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -6465,10 +6466,10 @@
         <v>0.4152777777777778</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="D404" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -6476,10 +6477,10 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="D405" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -6487,10 +6488,10 @@
         <v>0.40902777777777777</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="D406" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -6498,10 +6499,10 @@
         <v>0.40277777777777779</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="D407" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -6509,10 +6510,10 @@
         <v>0.40277777777777779</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="D408" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -6520,10 +6521,10 @@
         <v>0.40277777777777779</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="D409" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -6531,10 +6532,10 @@
         <v>0.3972222222222222</v>
       </c>
       <c r="B410" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -6542,10 +6543,10 @@
         <v>0.38680555555555557</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="D411" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -6553,10 +6554,10 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="B412" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -6564,10 +6565,10 @@
         <v>0.38263888888888886</v>
       </c>
       <c r="B413" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -6575,10 +6576,10 @@
         <v>0.36875000000000002</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="D414" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -6586,10 +6587,10 @@
         <v>0.36875000000000002</v>
       </c>
       <c r="B415" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -6597,10 +6598,10 @@
         <v>0.36875000000000002</v>
       </c>
       <c r="B416" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -6608,10 +6609,10 @@
         <v>0.36875000000000002</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="D417" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -6619,10 +6620,10 @@
         <v>0.36249999999999999</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="D418" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -6630,10 +6631,10 @@
         <v>0.35902777777777778</v>
       </c>
       <c r="B419" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -6641,10 +6642,10 @@
         <v>0.35833333333333334</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="D420" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -6652,10 +6653,10 @@
         <v>0.35833333333333334</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="D421" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -6663,10 +6664,10 @@
         <v>0.35833333333333334</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="D422" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -6674,10 +6675,10 @@
         <v>0.34722222222222221</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="D423" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -6685,10 +6686,10 @@
         <v>0.32777777777777778</v>
       </c>
       <c r="B424" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -6696,10 +6697,10 @@
         <v>0.32569444444444445</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="D425" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -6707,10 +6708,10 @@
         <v>0.3125</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="D426" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -6718,10 +6719,10 @@
         <v>0.31041666666666667</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="D427" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -6729,7 +6730,7 @@
         <v>0.30902777777777779</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="D428" t="s">
         <v>18</v>
@@ -6740,10 +6741,10 @@
         <v>0.30694444444444446</v>
       </c>
       <c r="B429" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -6751,10 +6752,10 @@
         <v>0.29791666666666666</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="D430" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -6762,10 +6763,10 @@
         <v>0.29791666666666666</v>
       </c>
       <c r="B431" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -6773,10 +6774,10 @@
         <v>0.29791666666666666</v>
       </c>
       <c r="B432" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -6784,10 +6785,10 @@
         <v>0.29791666666666666</v>
       </c>
       <c r="B433" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -6795,10 +6796,10 @@
         <v>0.29791666666666666</v>
       </c>
       <c r="B434" t="s">
-        <v>500</v>
+        <v>546</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -6806,10 +6807,10 @@
         <v>0.29791666666666666</v>
       </c>
       <c r="B435" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -6817,10 +6818,10 @@
         <v>0.28611111111111109</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="D436" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -6828,10 +6829,10 @@
         <v>0.28611111111111109</v>
       </c>
       <c r="B437" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -6839,10 +6840,10 @@
         <v>0.28611111111111109</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="D438" t="s">
-        <v>504</v>
+        <v>469</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -6850,10 +6851,10 @@
         <v>0.28611111111111109</v>
       </c>
       <c r="B439" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -6861,10 +6862,10 @@
         <v>0.28611111111111109</v>
       </c>
       <c r="B440" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -6872,10 +6873,10 @@
         <v>0.28472222222222221</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="D441" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -6883,10 +6884,10 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="D442" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -6894,10 +6895,10 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="B443" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -6905,10 +6906,10 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="D444" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -6916,10 +6917,10 @@
         <v>0.27013888888888887</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="D445" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -6927,10 +6928,10 @@
         <v>0.25347222222222221</v>
       </c>
       <c r="B446" t="s">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -6938,10 +6939,10 @@
         <v>0.24166666666666667</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="D447" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -6949,10 +6950,10 @@
         <v>0.23958333333333334</v>
       </c>
       <c r="B448" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -6960,10 +6961,10 @@
         <v>0.2298611111111111</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="D449" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -6971,10 +6972,10 @@
         <v>0.2298611111111111</v>
       </c>
       <c r="B450" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -6982,10 +6983,10 @@
         <v>0.2298611111111111</v>
       </c>
       <c r="B451" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -6993,10 +6994,10 @@
         <v>0.22361111111111112</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="D452" t="s">
-        <v>515</v>
+        <v>480</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -7004,10 +7005,10 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="B453" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -7015,10 +7016,10 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="D454" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -7026,10 +7027,10 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="B455" t="s">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -7037,10 +7038,10 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="D456" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -7048,10 +7049,10 @@
         <v>0.19722222222222222</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="D457" t="s">
-        <v>518</v>
+        <v>483</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -7059,10 +7060,10 @@
         <v>0.18680555555555556</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="D458" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -7070,10 +7071,10 @@
         <v>0.18194444444444444</v>
       </c>
       <c r="B459" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -7081,10 +7082,10 @@
         <v>0.17777777777777778</v>
       </c>
       <c r="B460" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -7092,10 +7093,10 @@
         <v>0.17777777777777778</v>
       </c>
       <c r="B461" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -7103,10 +7104,10 @@
         <v>0.16458333333333333</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="D462" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -7114,10 +7115,10 @@
         <v>0.15069444444444444</v>
       </c>
       <c r="B463" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -7125,10 +7126,10 @@
         <v>0.13958333333333334</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
       <c r="D464" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -7136,10 +7137,10 @@
         <v>0.125</v>
       </c>
       <c r="B465" t="s">
-        <v>526</v>
+        <v>489</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -7147,10 +7148,10 @@
         <v>0.11319444444444444</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
       <c r="D466" t="s">
-        <v>527</v>
+        <v>490</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -7158,10 +7159,10 @@
         <v>0.11319444444444444</v>
       </c>
       <c r="B467" t="s">
-        <v>528</v>
+        <v>491</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -7169,10 +7170,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="B468" t="s">
-        <v>529</v>
+        <v>492</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -7180,10 +7181,10 @@
         <v>0.10902777777777778</v>
       </c>
       <c r="B469" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -7191,7 +7192,7 @@
         <v>9.930555555555555E-2</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="D470" t="s">
         <v>18</v>
@@ -7202,10 +7203,10 @@
         <v>9.5138888888888884E-2</v>
       </c>
       <c r="B471" t="s">
-        <v>531</v>
+        <v>493</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -7213,10 +7214,10 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="D472" t="s">
-        <v>532</v>
+        <v>494</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -7224,10 +7225,10 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="B473" t="s">
-        <v>533</v>
+        <v>495</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -7235,10 +7236,10 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="B474" t="s">
-        <v>534</v>
+        <v>496</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -7246,10 +7247,10 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="B475" t="s">
-        <v>535</v>
+        <v>497</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -7257,10 +7258,10 @@
         <v>8.1944444444444445E-2</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="D476" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -7268,10 +7269,10 @@
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="D477" t="s">
-        <v>536</v>
+        <v>498</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -7279,10 +7280,10 @@
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="D478" t="s">
-        <v>537</v>
+        <v>499</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -7290,10 +7291,10 @@
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="B479" t="s">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -7301,10 +7302,10 @@
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="D480" t="s">
-        <v>539</v>
+        <v>501</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -7312,10 +7313,10 @@
         <v>6.5277777777777782E-2</v>
       </c>
       <c r="B481" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -7323,10 +7324,10 @@
         <v>5.9027777777777776E-2</v>
       </c>
       <c r="B482" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -7334,10 +7335,10 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="B483" t="s">
-        <v>542</v>
+        <v>503</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -7345,10 +7346,10 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="D484" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -7356,10 +7357,10 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="D485" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -7367,10 +7368,10 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="D486" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -7378,10 +7379,10 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="B487" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -7389,10 +7390,10 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="D488" t="s">
-        <v>546</v>
+        <v>506</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -7400,10 +7401,10 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="D489" t="s">
-        <v>547</v>
+        <v>507</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -7411,10 +7412,10 @@
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="B490" t="s">
-        <v>55</v>
+        <v>524</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -7422,10 +7423,10 @@
         <v>3.8194444444444448E-2</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="D491" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
@@ -7433,7 +7434,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="D492" t="s">
         <v>18</v>
@@ -7444,10 +7445,10 @@
         <v>3.2638888888888891E-2</v>
       </c>
       <c r="B493" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
@@ -7455,10 +7456,10 @@
         <v>3.1944444444444442E-2</v>
       </c>
       <c r="B494" t="s">
-        <v>550</v>
+        <v>509</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
@@ -7466,10 +7467,10 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="B495" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
@@ -7477,10 +7478,10 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="B496" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
@@ -7488,10 +7489,10 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="D497" t="s">
-        <v>551</v>
+        <v>510</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
@@ -7499,10 +7500,10 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="D498" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
@@ -7510,10 +7511,10 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="D499" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
@@ -7521,10 +7522,10 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="D500" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
@@ -7532,10 +7533,10 @@
         <v>1.5972222222222221E-2</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="D501" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
@@ -7543,10 +7544,10 @@
         <v>1.5972222222222221E-2</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="D502" t="s">
-        <v>554</v>
+        <v>513</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
@@ -7554,10 +7555,10 @@
         <v>1.5972222222222221E-2</v>
       </c>
       <c r="B503" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
@@ -7565,10 +7566,10 @@
         <v>1.3194444444444444E-2</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="D504" t="s">
-        <v>556</v>
+        <v>514</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
@@ -7576,10 +7577,10 @@
         <v>1.3194444444444444E-2</v>
       </c>
       <c r="B505" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
@@ -7587,10 +7588,10 @@
         <v>1.1805555555555555E-2</v>
       </c>
       <c r="B506" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
@@ -7598,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="B507" t="s">
-        <v>559</v>
+        <v>515</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
@@ -7606,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="B508" t="s">
-        <v>560</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
